--- a/wsheet.xlsx
+++ b/wsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manashree\Swarnakshara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAF37B8-34E2-4E07-ABC6-FBADDB3FE820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F130575A-AF2A-4389-9D71-F2B720F62FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6111" yWindow="2467" windowWidth="18031" windowHeight="9303" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6010" yWindow="2467" windowWidth="18032" windowHeight="9303" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -106,6 +106,18 @@
 Material: Katan silk
  Saree   :5.5 m 
 Blouse piece: 1m</t>
+  </si>
+  <si>
+    <t>Morpankh</t>
+  </si>
+  <si>
+    <t>An abstract peacock feather.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Material :Mummul silk
+Length: 5.5m
+Blouse piece: 1 m</t>
   </si>
 </sst>
 </file>
@@ -440,7 +452,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -562,9 +574,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="60.1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>3500</v>
+      </c>
       <c r="D7" t="s">
         <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">

--- a/wsheet.xlsx
+++ b/wsheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3234" yWindow="3234" windowWidth="17280" windowHeight="8994" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -406,8 +406,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
